--- a/biology/Médecine/Gustaf_Magnus_Retzius/Gustaf_Magnus_Retzius.xlsx
+++ b/biology/Médecine/Gustaf_Magnus_Retzius/Gustaf_Magnus_Retzius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustaf Magnus Retzius, né le 17 octobre 1842 à Stockholm et mort le 21 juillet 1919 dans la même ville, est un médecin anatomiste suédois qui a consacré une grande partie de sa vie à la recherche dans le domaine de l'histologie des organes des sens et du système nerveux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Stockholm, Gustaf Magnus Retzius est le fils de l’anatomiste Anders Retzius et le petit-fils du chimiste et naturaliste Anders Jahan Retzius. C’est en 1860 qu’il s’inscrit à l’université d'Uppsala où il obtient son titre de médecine en 1866, avant de rejoindre l’Institut Karolinska où il obtient, en 1869, le grade suédois de « licenciat » en médecine puis celui de docteur en 1871 à l’université de Lund.
 À l’Institut Karolinska, il devient professeur extraordinaire d’histologie en 1877 puis professeur ordinaire d’anatomie en 1889, mais il démissionne en 1890, en conflit avec d’autres membres de l’Institut. Sa riche épouse, Anna Hierta, lui permet de poursuivre ses recherches et de publier ses nombreux écrits sans la nécessité d’avoir un emploi.
